--- a/auto/new_data/7_上海航運交易所_一帶一路航貿指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_一帶一路航貿指數.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,77 +434,68 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>指數名稱</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>指數名稱</t>
+          <t>指數</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>指數</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>指數_time</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>“一带一路”贸易额指数</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>“一带一路”贸易额指数</t>
+          <t>200.67</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>200.67</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>“一带一路”集装箱海运量指数</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>“一带一路”集装箱海运量指数</t>
+          <t>166.83</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>166.83</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>“海上丝绸之路”运价指数</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>“海上丝绸之路”运价指数</t>
+          <t>162.19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>162.19</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>2024-09-25</t>
         </is>

--- a/auto/new_data/7_上海航運交易所_一帶一路航貿指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_一帶一路航貿指數.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>200.67</t>
+          <t>207.42</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166.83</t>
+          <t>164.61</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162.19</t>
+          <t>135.88</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_一帶一路航貿指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_一帶一路航貿指數.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>207.42</t>
+          <t>199.02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164.61</t>
+          <t>161.27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>135.88</t>
+          <t>133.12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_一帶一路航貿指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_一帶一路航貿指數.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>199.02</t>
+          <t>214.01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161.27</t>
+          <t>165.36</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>133.12</t>
+          <t>128.15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
